--- a/Discount-Variety-Store-433-Monthly-Sales (1).xlsx
+++ b/Discount-Variety-Store-433-Monthly-Sales (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erbpr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB621CE5-F054-4B1B-8EC9-97C91C8AF598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA0303B-DF1A-4CEC-BFB8-84E4612DF538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Monthly sales</t>
   </si>
@@ -94,6 +94,9 @@
   <si>
     <t>Highest monthly average</t>
   </si>
+  <si>
+    <t>Sales Graph</t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -131,6 +134,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -174,6 +184,9 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,70 +405,73 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD1000"/>
+  <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="14" width="14.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26" customWidth="1"/>
-    <col min="16" max="30" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="15" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="26" customWidth="1"/>
+    <col min="17" max="31" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
@@ -469,54 +485,55 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
-    </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE1" s="3"/>
+    </row>
+    <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2011</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="4">
         <v>47563</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>49078</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>51324</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>55678</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>54687</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>72013</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>80443</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>86785</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <v>90876</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <v>67712</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="6">
         <v>70048</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
         <v>145378</v>
       </c>
-      <c r="N2" s="8">
-        <f t="shared" ref="N2:N11" si="0">SUM(B2:M2)</f>
+      <c r="O2" s="8">
+        <f t="shared" ref="O2:O11" si="0">SUM(C2:N2)</f>
         <v>871585</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="3"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="9"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -530,60 +547,61 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE2" s="3"/>
+    </row>
+    <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2012</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1"/>
+      <c r="C3" s="4">
         <v>39575</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>50384</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>56827</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>60401</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>59802</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>84023</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>59733</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>86568</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>90986</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>68145</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>81811</v>
       </c>
-      <c r="M3" s="7">
+      <c r="N3" s="7">
         <v>199468</v>
       </c>
-      <c r="N3" s="8">
+      <c r="O3" s="8">
         <f t="shared" si="0"/>
         <v>937723</v>
       </c>
-      <c r="O3" s="10">
-        <f t="shared" ref="O3:O11" si="1">(N3-N2)</f>
+      <c r="P3" s="10">
+        <f t="shared" ref="P3:P11" si="1">(O3-O2)</f>
         <v>66138</v>
       </c>
-      <c r="P3" s="9">
-        <f t="shared" ref="P3:P11" si="2">(O3/N2)</f>
+      <c r="Q3" s="9">
+        <f t="shared" ref="Q3:Q11" si="2">(P3/O2)</f>
         <v>7.5882444053075718E-2</v>
       </c>
-      <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -597,60 +615,61 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE3" s="3"/>
+    </row>
+    <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2013</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="4">
         <v>56591</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>50319</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>51627</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>53040</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>63607</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>84145</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>72511</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>91004</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>95838</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
         <v>70003</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="7">
         <v>79809</v>
       </c>
-      <c r="M4" s="7">
+      <c r="N4" s="7">
         <v>155736</v>
       </c>
-      <c r="N4" s="8">
+      <c r="O4" s="8">
         <f t="shared" si="0"/>
         <v>924230</v>
       </c>
-      <c r="O4" s="10">
+      <c r="P4" s="10">
         <f t="shared" si="1"/>
         <v>-13493</v>
       </c>
-      <c r="P4" s="9">
+      <c r="Q4" s="9">
         <f t="shared" si="2"/>
         <v>-1.4389110643548255E-2</v>
       </c>
-      <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -664,60 +683,61 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
-    </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE4" s="3"/>
+    </row>
+    <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2014</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4">
         <v>39113</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>40107</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>52332</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>63681</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>54788</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>69505</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>69789</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>80030</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>96448</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L5" s="7">
         <v>70317</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M5" s="7">
         <v>74153</v>
       </c>
-      <c r="M5" s="7">
+      <c r="N5" s="7">
         <v>160152</v>
       </c>
-      <c r="N5" s="8">
+      <c r="O5" s="8">
         <f t="shared" si="0"/>
         <v>870415</v>
       </c>
-      <c r="O5" s="10">
+      <c r="P5" s="10">
         <f t="shared" si="1"/>
         <v>-53815</v>
       </c>
-      <c r="P5" s="9">
+      <c r="Q5" s="9">
         <f t="shared" si="2"/>
         <v>-5.8226848295337738E-2</v>
       </c>
-      <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -731,60 +751,61 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE5" s="3"/>
+    </row>
+    <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2015</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4">
         <v>41666</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>53993</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>43428</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>64898</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>58070</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>77845</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>79131</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>83993</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>93311</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <v>67773</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <v>71925</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N6" s="7">
         <v>159231</v>
       </c>
-      <c r="N6" s="8">
+      <c r="O6" s="8">
         <f t="shared" si="0"/>
         <v>895264</v>
       </c>
-      <c r="O6" s="10">
+      <c r="P6" s="10">
         <f t="shared" si="1"/>
         <v>24849</v>
       </c>
-      <c r="P6" s="9">
+      <c r="Q6" s="9">
         <f t="shared" si="2"/>
         <v>2.8548451026234611E-2</v>
       </c>
-      <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -798,60 +819,61 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
-    </row>
-    <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE6" s="3"/>
+    </row>
+    <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2016</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="4">
         <v>38405</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>46658</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>40267</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>53313</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>57532</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>78583</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>70271</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>88744</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>95468</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>66886</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="7">
         <v>82020</v>
       </c>
-      <c r="M7" s="7">
+      <c r="N7" s="7">
         <v>162724</v>
       </c>
-      <c r="N7" s="8">
+      <c r="O7" s="8">
         <f t="shared" si="0"/>
         <v>880871</v>
       </c>
-      <c r="O7" s="10">
+      <c r="P7" s="10">
         <f t="shared" si="1"/>
         <v>-14393</v>
       </c>
-      <c r="P7" s="9">
+      <c r="Q7" s="9">
         <f t="shared" si="2"/>
         <v>-1.6076822032383743E-2</v>
       </c>
-      <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -865,60 +887,61 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
-    </row>
-    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE7" s="3"/>
+    </row>
+    <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2017</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4">
         <v>41756</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>41311</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>50981</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>62467</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>54526</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>84282</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>73403</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>82530</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>92958</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L8" s="7">
         <v>67167</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M8" s="7">
         <v>75553</v>
       </c>
-      <c r="M8" s="7">
+      <c r="N8" s="7">
         <v>161102</v>
       </c>
-      <c r="N8" s="8">
+      <c r="O8" s="8">
         <f t="shared" si="0"/>
         <v>888036</v>
       </c>
-      <c r="O8" s="10">
+      <c r="P8" s="10">
         <f t="shared" si="1"/>
         <v>7165</v>
       </c>
-      <c r="P8" s="9">
+      <c r="Q8" s="9">
         <f t="shared" si="2"/>
         <v>8.1339946484786079E-3</v>
       </c>
-      <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -932,60 +955,61 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
-    </row>
-    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE8" s="3"/>
+    </row>
+    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2018</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="4">
         <v>56061</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>40703</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>47350</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>56515</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>60270</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>75195</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>70765</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>89011</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>91707</v>
       </c>
-      <c r="K9" s="7">
+      <c r="L9" s="7">
         <v>73375</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M9" s="7">
         <v>77740</v>
       </c>
-      <c r="M9" s="7">
+      <c r="N9" s="7">
         <v>182880</v>
       </c>
-      <c r="N9" s="8">
+      <c r="O9" s="8">
         <f t="shared" si="0"/>
         <v>921572</v>
       </c>
-      <c r="O9" s="10">
+      <c r="P9" s="10">
         <f t="shared" si="1"/>
         <v>33536</v>
       </c>
-      <c r="P9" s="9">
+      <c r="Q9" s="9">
         <f t="shared" si="2"/>
         <v>3.776423478327455E-2</v>
       </c>
-      <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -999,60 +1023,61 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE9" s="3"/>
+    </row>
+    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2019</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1"/>
+      <c r="C10" s="4">
         <v>57355</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>46703</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>44234</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>57172</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>63455</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <v>72180</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>82110</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>90201</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>90814</v>
       </c>
-      <c r="K10" s="7">
+      <c r="L10" s="7">
         <v>69444</v>
       </c>
-      <c r="L10" s="7">
+      <c r="M10" s="7">
         <v>73301</v>
       </c>
-      <c r="M10" s="7">
+      <c r="N10" s="7">
         <v>192224</v>
       </c>
-      <c r="N10" s="8">
+      <c r="O10" s="8">
         <f t="shared" si="0"/>
         <v>939193</v>
       </c>
-      <c r="O10" s="10">
+      <c r="P10" s="10">
         <f t="shared" si="1"/>
         <v>17621</v>
       </c>
-      <c r="P10" s="9">
+      <c r="Q10" s="9">
         <f t="shared" si="2"/>
         <v>1.9120589601246567E-2</v>
       </c>
-      <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -1066,60 +1091,61 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
-    </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE10" s="3"/>
+    </row>
+    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2020</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="4">
         <v>42234</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>54050</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>42377</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>61252</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>55787</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H11" s="7">
         <v>78382</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>88438</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>89150</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <v>95810</v>
       </c>
-      <c r="K11" s="7">
+      <c r="L11" s="7">
         <v>70843</v>
       </c>
-      <c r="L11" s="7">
+      <c r="M11" s="7">
         <v>75393</v>
       </c>
-      <c r="M11" s="7">
+      <c r="N11" s="7">
         <v>137534</v>
       </c>
-      <c r="N11" s="8">
+      <c r="O11" s="8">
         <f t="shared" si="0"/>
         <v>891250</v>
       </c>
-      <c r="O11" s="10">
+      <c r="P11" s="10">
         <f t="shared" si="1"/>
         <v>-47943</v>
       </c>
-      <c r="P11" s="9">
+      <c r="Q11" s="9">
         <f t="shared" si="2"/>
         <v>-5.1047015895561404E-2</v>
       </c>
-      <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1133,63 +1159,64 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
-        <f t="shared" ref="B12:M12" si="3">AVERAGE(B2:B11)</f>
+      <c r="B12" s="2"/>
+      <c r="C12" s="8">
+        <f t="shared" ref="C12:N12" si="3">AVERAGE(C2:C11)</f>
         <v>46031.9</v>
       </c>
-      <c r="C12" s="8">
+      <c r="D12" s="8">
         <f t="shared" si="3"/>
         <v>47330.6</v>
       </c>
-      <c r="D12" s="8">
+      <c r="E12" s="8">
         <f t="shared" si="3"/>
         <v>48074.7</v>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="8">
         <f t="shared" si="3"/>
         <v>58841.7</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="8">
         <f t="shared" si="3"/>
         <v>58252.4</v>
       </c>
-      <c r="G12" s="8">
+      <c r="H12" s="8">
         <f t="shared" si="3"/>
         <v>77615.3</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <f t="shared" si="3"/>
         <v>74659.399999999994</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <f t="shared" si="3"/>
         <v>86801.600000000006</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <f t="shared" si="3"/>
         <v>93421.6</v>
       </c>
-      <c r="K12" s="8">
+      <c r="L12" s="8">
         <f t="shared" si="3"/>
         <v>69166.5</v>
       </c>
-      <c r="L12" s="8">
+      <c r="M12" s="8">
         <f t="shared" si="3"/>
         <v>76175.3</v>
       </c>
-      <c r="M12" s="8">
+      <c r="N12" s="8">
         <f t="shared" si="3"/>
         <v>165642.9</v>
       </c>
-      <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1203,8 +1230,9 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-    </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE12" s="3"/>
+    </row>
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1235,16 +1263,17 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-    </row>
-    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE13" s="3"/>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="8">
-        <f>MIN(B12:M12)</f>
+      <c r="B14" s="2"/>
+      <c r="C14" s="8">
+        <f>MIN(C12:N12)</f>
         <v>46031.9</v>
       </c>
-      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1272,16 +1301,17 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
-    </row>
-    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE14" s="3"/>
+    </row>
+    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="8">
-        <f>MAX(B12:M12)</f>
+      <c r="B15" s="2"/>
+      <c r="C15" s="8">
+        <f>MAX(C12:N12)</f>
         <v>165642.9</v>
       </c>
-      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1309,8 +1339,9 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
-    </row>
-    <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE15" s="3"/>
+    </row>
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1341,8 +1372,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1373,8 +1405,9 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
-    </row>
-    <row r="18" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE17" s="3"/>
+    </row>
+    <row r="18" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1405,8 +1438,9 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
-    </row>
-    <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE18" s="3"/>
+    </row>
+    <row r="19" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1437,8 +1471,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1469,8 +1504,9 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
-    </row>
-    <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE20" s="3"/>
+    </row>
+    <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1501,8 +1537,9 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
-    </row>
-    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE21" s="3"/>
+    </row>
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1533,8 +1570,9 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
-    </row>
-    <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE22" s="3"/>
+    </row>
+    <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1565,8 +1603,9 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
-    </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE23" s="3"/>
+    </row>
+    <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1597,8 +1636,9 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
-    </row>
-    <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE24" s="3"/>
+    </row>
+    <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1629,8 +1669,9 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
-    </row>
-    <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE25" s="3"/>
+    </row>
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1661,8 +1702,9 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
-    </row>
-    <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE26" s="3"/>
+    </row>
+    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1693,8 +1735,9 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
-    </row>
-    <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE27" s="3"/>
+    </row>
+    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1725,8 +1768,9 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
-    </row>
-    <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE28" s="3"/>
+    </row>
+    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1757,8 +1801,9 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
-    </row>
-    <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE29" s="3"/>
+    </row>
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1789,8 +1834,9 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
-    </row>
-    <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE30" s="3"/>
+    </row>
+    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1821,8 +1867,9 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
-    </row>
-    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE31" s="3"/>
+    </row>
+    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1853,8 +1900,9 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
-    </row>
-    <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE32" s="3"/>
+    </row>
+    <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1885,8 +1933,9 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
-    </row>
-    <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE33" s="3"/>
+    </row>
+    <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1917,8 +1966,9 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
-    </row>
-    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE34" s="3"/>
+    </row>
+    <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1949,8 +1999,9 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
-    </row>
-    <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE35" s="3"/>
+    </row>
+    <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1981,8 +2032,9 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
-    </row>
-    <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE36" s="3"/>
+    </row>
+    <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2013,8 +2065,9 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
-    </row>
-    <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE37" s="3"/>
+    </row>
+    <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2045,8 +2098,9 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
-    </row>
-    <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE38" s="3"/>
+    </row>
+    <row r="39" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2077,8 +2131,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2109,8 +2164,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2141,8 +2197,9 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
-    </row>
-    <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE41" s="3"/>
+    </row>
+    <row r="42" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2173,8 +2230,9 @@
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
-    </row>
-    <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE42" s="3"/>
+    </row>
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2205,8 +2263,9 @@
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
-    </row>
-    <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE43" s="3"/>
+    </row>
+    <row r="44" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2237,8 +2296,9 @@
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
-    </row>
-    <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE44" s="3"/>
+    </row>
+    <row r="45" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2269,8 +2329,9 @@
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
-    </row>
-    <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE45" s="3"/>
+    </row>
+    <row r="46" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2301,8 +2362,9 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
-    </row>
-    <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE46" s="3"/>
+    </row>
+    <row r="47" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2333,8 +2395,9 @@
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
-    </row>
-    <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE47" s="3"/>
+    </row>
+    <row r="48" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2365,8 +2428,9 @@
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
-    </row>
-    <row r="49" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE48" s="3"/>
+    </row>
+    <row r="49" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2397,8 +2461,9 @@
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
-    </row>
-    <row r="50" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE49" s="3"/>
+    </row>
+    <row r="50" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2429,8 +2494,9 @@
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
-    </row>
-    <row r="51" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE50" s="3"/>
+    </row>
+    <row r="51" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2461,8 +2527,9 @@
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
-    </row>
-    <row r="52" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE51" s="3"/>
+    </row>
+    <row r="52" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2493,8 +2560,9 @@
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
-    </row>
-    <row r="53" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE52" s="3"/>
+    </row>
+    <row r="53" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2525,8 +2593,9 @@
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
-    </row>
-    <row r="54" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE53" s="3"/>
+    </row>
+    <row r="54" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2557,8 +2626,9 @@
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
-    </row>
-    <row r="55" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE54" s="3"/>
+    </row>
+    <row r="55" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2589,8 +2659,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2621,8 +2692,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2653,8 +2725,9 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
-    </row>
-    <row r="58" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE57" s="3"/>
+    </row>
+    <row r="58" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2685,8 +2758,9 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
       <c r="AD58" s="3"/>
-    </row>
-    <row r="59" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE58" s="3"/>
+    </row>
+    <row r="59" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2717,8 +2791,9 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
-    </row>
-    <row r="60" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE59" s="3"/>
+    </row>
+    <row r="60" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2749,8 +2824,9 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
       <c r="AD60" s="3"/>
-    </row>
-    <row r="61" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE60" s="3"/>
+    </row>
+    <row r="61" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2781,8 +2857,9 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
-    </row>
-    <row r="62" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE61" s="3"/>
+    </row>
+    <row r="62" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2813,8 +2890,9 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
-    </row>
-    <row r="63" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE62" s="3"/>
+    </row>
+    <row r="63" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2845,8 +2923,9 @@
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
       <c r="AD63" s="3"/>
-    </row>
-    <row r="64" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE63" s="3"/>
+    </row>
+    <row r="64" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2877,8 +2956,9 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
       <c r="AD64" s="3"/>
-    </row>
-    <row r="65" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE64" s="3"/>
+    </row>
+    <row r="65" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2909,8 +2989,9 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
       <c r="AD65" s="3"/>
-    </row>
-    <row r="66" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE65" s="3"/>
+    </row>
+    <row r="66" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2941,8 +3022,9 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
       <c r="AD66" s="3"/>
-    </row>
-    <row r="67" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE66" s="3"/>
+    </row>
+    <row r="67" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2973,8 +3055,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3005,8 +3088,9 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
       <c r="AD68" s="3"/>
-    </row>
-    <row r="69" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE68" s="3"/>
+    </row>
+    <row r="69" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3037,8 +3121,9 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
       <c r="AD69" s="3"/>
-    </row>
-    <row r="70" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE69" s="3"/>
+    </row>
+    <row r="70" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3069,8 +3154,9 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
       <c r="AD70" s="3"/>
-    </row>
-    <row r="71" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE70" s="3"/>
+    </row>
+    <row r="71" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3101,8 +3187,9 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
       <c r="AD71" s="3"/>
-    </row>
-    <row r="72" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE71" s="3"/>
+    </row>
+    <row r="72" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3133,8 +3220,9 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
       <c r="AD72" s="3"/>
-    </row>
-    <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE72" s="3"/>
+    </row>
+    <row r="73" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3165,8 +3253,9 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
-    </row>
-    <row r="74" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE73" s="3"/>
+    </row>
+    <row r="74" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3197,8 +3286,9 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
       <c r="AD74" s="3"/>
-    </row>
-    <row r="75" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE74" s="3"/>
+    </row>
+    <row r="75" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3229,8 +3319,9 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
       <c r="AD75" s="3"/>
-    </row>
-    <row r="76" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE75" s="3"/>
+    </row>
+    <row r="76" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3261,8 +3352,9 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
       <c r="AD76" s="3"/>
-    </row>
-    <row r="77" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE76" s="3"/>
+    </row>
+    <row r="77" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3293,8 +3385,9 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
       <c r="AD77" s="3"/>
-    </row>
-    <row r="78" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE77" s="3"/>
+    </row>
+    <row r="78" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3325,8 +3418,9 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
       <c r="AD78" s="3"/>
-    </row>
-    <row r="79" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE78" s="3"/>
+    </row>
+    <row r="79" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3357,8 +3451,9 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
       <c r="AD79" s="3"/>
-    </row>
-    <row r="80" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE79" s="3"/>
+    </row>
+    <row r="80" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3389,8 +3484,9 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
       <c r="AD80" s="3"/>
-    </row>
-    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE80" s="3"/>
+    </row>
+    <row r="81" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3421,8 +3517,9 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
       <c r="AD81" s="3"/>
-    </row>
-    <row r="82" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE81" s="3"/>
+    </row>
+    <row r="82" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3453,8 +3550,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3485,8 +3583,9 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
       <c r="AD83" s="3"/>
-    </row>
-    <row r="84" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE83" s="3"/>
+    </row>
+    <row r="84" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3517,8 +3616,9 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
       <c r="AD84" s="3"/>
-    </row>
-    <row r="85" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE84" s="3"/>
+    </row>
+    <row r="85" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3549,8 +3649,9 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
       <c r="AD85" s="3"/>
-    </row>
-    <row r="86" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE85" s="3"/>
+    </row>
+    <row r="86" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3581,8 +3682,9 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
       <c r="AD86" s="3"/>
-    </row>
-    <row r="87" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE86" s="3"/>
+    </row>
+    <row r="87" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3613,8 +3715,9 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
       <c r="AD87" s="3"/>
-    </row>
-    <row r="88" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE87" s="3"/>
+    </row>
+    <row r="88" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3645,8 +3748,9 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
       <c r="AD88" s="3"/>
-    </row>
-    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE88" s="3"/>
+    </row>
+    <row r="89" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3677,8 +3781,9 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
       <c r="AD89" s="3"/>
-    </row>
-    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE89" s="3"/>
+    </row>
+    <row r="90" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3709,8 +3814,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3741,8 +3847,9 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
       <c r="AD91" s="3"/>
-    </row>
-    <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE91" s="3"/>
+    </row>
+    <row r="92" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3773,8 +3880,9 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
       <c r="AD92" s="3"/>
-    </row>
-    <row r="93" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE92" s="3"/>
+    </row>
+    <row r="93" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3805,8 +3913,9 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
       <c r="AD93" s="3"/>
-    </row>
-    <row r="94" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE93" s="3"/>
+    </row>
+    <row r="94" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3837,8 +3946,9 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
       <c r="AD94" s="3"/>
-    </row>
-    <row r="95" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE94" s="3"/>
+    </row>
+    <row r="95" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3869,8 +3979,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3901,8 +4012,9 @@
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
       <c r="AD96" s="3"/>
-    </row>
-    <row r="97" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE96" s="3"/>
+    </row>
+    <row r="97" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3933,8 +4045,9 @@
       <c r="AB97" s="3"/>
       <c r="AC97" s="3"/>
       <c r="AD97" s="3"/>
-    </row>
-    <row r="98" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE97" s="3"/>
+    </row>
+    <row r="98" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3965,8 +4078,9 @@
       <c r="AB98" s="3"/>
       <c r="AC98" s="3"/>
       <c r="AD98" s="3"/>
-    </row>
-    <row r="99" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE98" s="3"/>
+    </row>
+    <row r="99" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3997,8 +4111,9 @@
       <c r="AB99" s="3"/>
       <c r="AC99" s="3"/>
       <c r="AD99" s="3"/>
-    </row>
-    <row r="100" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE99" s="3"/>
+    </row>
+    <row r="100" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -4029,8 +4144,9 @@
       <c r="AB100" s="3"/>
       <c r="AC100" s="3"/>
       <c r="AD100" s="3"/>
-    </row>
-    <row r="101" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE100" s="3"/>
+    </row>
+    <row r="101" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -4061,8 +4177,9 @@
       <c r="AB101" s="3"/>
       <c r="AC101" s="3"/>
       <c r="AD101" s="3"/>
-    </row>
-    <row r="102" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE101" s="3"/>
+    </row>
+    <row r="102" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -4093,8 +4210,9 @@
       <c r="AB102" s="3"/>
       <c r="AC102" s="3"/>
       <c r="AD102" s="3"/>
-    </row>
-    <row r="103" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE102" s="3"/>
+    </row>
+    <row r="103" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4125,8 +4243,9 @@
       <c r="AB103" s="3"/>
       <c r="AC103" s="3"/>
       <c r="AD103" s="3"/>
-    </row>
-    <row r="104" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE103" s="3"/>
+    </row>
+    <row r="104" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4157,8 +4276,9 @@
       <c r="AB104" s="3"/>
       <c r="AC104" s="3"/>
       <c r="AD104" s="3"/>
-    </row>
-    <row r="105" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE104" s="3"/>
+    </row>
+    <row r="105" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4189,8 +4309,9 @@
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
       <c r="AD105" s="3"/>
-    </row>
-    <row r="106" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE105" s="3"/>
+    </row>
+    <row r="106" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4221,8 +4342,9 @@
       <c r="AB106" s="3"/>
       <c r="AC106" s="3"/>
       <c r="AD106" s="3"/>
-    </row>
-    <row r="107" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE106" s="3"/>
+    </row>
+    <row r="107" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4253,8 +4375,9 @@
       <c r="AB107" s="3"/>
       <c r="AC107" s="3"/>
       <c r="AD107" s="3"/>
-    </row>
-    <row r="108" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE107" s="3"/>
+    </row>
+    <row r="108" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4285,8 +4408,9 @@
       <c r="AB108" s="3"/>
       <c r="AC108" s="3"/>
       <c r="AD108" s="3"/>
-    </row>
-    <row r="109" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE108" s="3"/>
+    </row>
+    <row r="109" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4317,8 +4441,9 @@
       <c r="AB109" s="3"/>
       <c r="AC109" s="3"/>
       <c r="AD109" s="3"/>
-    </row>
-    <row r="110" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE109" s="3"/>
+    </row>
+    <row r="110" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4349,8 +4474,9 @@
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
       <c r="AD110" s="3"/>
-    </row>
-    <row r="111" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE110" s="3"/>
+    </row>
+    <row r="111" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4381,8 +4507,9 @@
       <c r="AB111" s="3"/>
       <c r="AC111" s="3"/>
       <c r="AD111" s="3"/>
-    </row>
-    <row r="112" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE111" s="3"/>
+    </row>
+    <row r="112" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4413,8 +4540,9 @@
       <c r="AB112" s="3"/>
       <c r="AC112" s="3"/>
       <c r="AD112" s="3"/>
-    </row>
-    <row r="113" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE112" s="3"/>
+    </row>
+    <row r="113" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4445,8 +4573,9 @@
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
       <c r="AD113" s="3"/>
-    </row>
-    <row r="114" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE113" s="3"/>
+    </row>
+    <row r="114" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -4477,8 +4606,9 @@
       <c r="AB114" s="3"/>
       <c r="AC114" s="3"/>
       <c r="AD114" s="3"/>
-    </row>
-    <row r="115" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE114" s="3"/>
+    </row>
+    <row r="115" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -4509,8 +4639,9 @@
       <c r="AB115" s="3"/>
       <c r="AC115" s="3"/>
       <c r="AD115" s="3"/>
-    </row>
-    <row r="116" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE115" s="3"/>
+    </row>
+    <row r="116" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -4541,8 +4672,9 @@
       <c r="AB116" s="3"/>
       <c r="AC116" s="3"/>
       <c r="AD116" s="3"/>
-    </row>
-    <row r="117" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE116" s="3"/>
+    </row>
+    <row r="117" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4573,8 +4705,9 @@
       <c r="AB117" s="3"/>
       <c r="AC117" s="3"/>
       <c r="AD117" s="3"/>
-    </row>
-    <row r="118" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE117" s="3"/>
+    </row>
+    <row r="118" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4605,8 +4738,9 @@
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
       <c r="AD118" s="3"/>
-    </row>
-    <row r="119" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE118" s="3"/>
+    </row>
+    <row r="119" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4637,8 +4771,9 @@
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
       <c r="AD119" s="3"/>
-    </row>
-    <row r="120" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE119" s="3"/>
+    </row>
+    <row r="120" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4669,8 +4804,9 @@
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
       <c r="AD120" s="3"/>
-    </row>
-    <row r="121" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE120" s="3"/>
+    </row>
+    <row r="121" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4701,8 +4837,9 @@
       <c r="AB121" s="3"/>
       <c r="AC121" s="3"/>
       <c r="AD121" s="3"/>
-    </row>
-    <row r="122" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE121" s="3"/>
+    </row>
+    <row r="122" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4733,8 +4870,9 @@
       <c r="AB122" s="3"/>
       <c r="AC122" s="3"/>
       <c r="AD122" s="3"/>
-    </row>
-    <row r="123" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE122" s="3"/>
+    </row>
+    <row r="123" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4765,8 +4903,9 @@
       <c r="AB123" s="3"/>
       <c r="AC123" s="3"/>
       <c r="AD123" s="3"/>
-    </row>
-    <row r="124" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE123" s="3"/>
+    </row>
+    <row r="124" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4797,8 +4936,9 @@
       <c r="AB124" s="3"/>
       <c r="AC124" s="3"/>
       <c r="AD124" s="3"/>
-    </row>
-    <row r="125" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE124" s="3"/>
+    </row>
+    <row r="125" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4829,8 +4969,9 @@
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
       <c r="AD125" s="3"/>
-    </row>
-    <row r="126" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE125" s="3"/>
+    </row>
+    <row r="126" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4861,8 +5002,9 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
       <c r="AD126" s="3"/>
-    </row>
-    <row r="127" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE126" s="3"/>
+    </row>
+    <row r="127" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4893,8 +5035,9 @@
       <c r="AB127" s="3"/>
       <c r="AC127" s="3"/>
       <c r="AD127" s="3"/>
-    </row>
-    <row r="128" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE127" s="3"/>
+    </row>
+    <row r="128" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4925,8 +5068,9 @@
       <c r="AB128" s="3"/>
       <c r="AC128" s="3"/>
       <c r="AD128" s="3"/>
-    </row>
-    <row r="129" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE128" s="3"/>
+    </row>
+    <row r="129" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4957,8 +5101,9 @@
       <c r="AB129" s="3"/>
       <c r="AC129" s="3"/>
       <c r="AD129" s="3"/>
-    </row>
-    <row r="130" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE129" s="3"/>
+    </row>
+    <row r="130" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4989,8 +5134,9 @@
       <c r="AB130" s="3"/>
       <c r="AC130" s="3"/>
       <c r="AD130" s="3"/>
-    </row>
-    <row r="131" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE130" s="3"/>
+    </row>
+    <row r="131" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -5021,8 +5167,9 @@
       <c r="AB131" s="3"/>
       <c r="AC131" s="3"/>
       <c r="AD131" s="3"/>
-    </row>
-    <row r="132" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE131" s="3"/>
+    </row>
+    <row r="132" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -5053,8 +5200,9 @@
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
       <c r="AD132" s="3"/>
-    </row>
-    <row r="133" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE132" s="3"/>
+    </row>
+    <row r="133" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -5085,8 +5233,9 @@
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
       <c r="AD133" s="3"/>
-    </row>
-    <row r="134" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE133" s="3"/>
+    </row>
+    <row r="134" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -5117,8 +5266,9 @@
       <c r="AB134" s="3"/>
       <c r="AC134" s="3"/>
       <c r="AD134" s="3"/>
-    </row>
-    <row r="135" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE134" s="3"/>
+    </row>
+    <row r="135" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -5149,8 +5299,9 @@
       <c r="AB135" s="3"/>
       <c r="AC135" s="3"/>
       <c r="AD135" s="3"/>
-    </row>
-    <row r="136" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE135" s="3"/>
+    </row>
+    <row r="136" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -5181,8 +5332,9 @@
       <c r="AB136" s="3"/>
       <c r="AC136" s="3"/>
       <c r="AD136" s="3"/>
-    </row>
-    <row r="137" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE136" s="3"/>
+    </row>
+    <row r="137" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -5213,8 +5365,9 @@
       <c r="AB137" s="3"/>
       <c r="AC137" s="3"/>
       <c r="AD137" s="3"/>
-    </row>
-    <row r="138" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE137" s="3"/>
+    </row>
+    <row r="138" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -5245,8 +5398,9 @@
       <c r="AB138" s="3"/>
       <c r="AC138" s="3"/>
       <c r="AD138" s="3"/>
-    </row>
-    <row r="139" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE138" s="3"/>
+    </row>
+    <row r="139" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -5277,8 +5431,9 @@
       <c r="AB139" s="3"/>
       <c r="AC139" s="3"/>
       <c r="AD139" s="3"/>
-    </row>
-    <row r="140" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE139" s="3"/>
+    </row>
+    <row r="140" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -5309,8 +5464,9 @@
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
       <c r="AD140" s="3"/>
-    </row>
-    <row r="141" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE140" s="3"/>
+    </row>
+    <row r="141" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -5341,8 +5497,9 @@
       <c r="AB141" s="3"/>
       <c r="AC141" s="3"/>
       <c r="AD141" s="3"/>
-    </row>
-    <row r="142" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE141" s="3"/>
+    </row>
+    <row r="142" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -5373,8 +5530,9 @@
       <c r="AB142" s="3"/>
       <c r="AC142" s="3"/>
       <c r="AD142" s="3"/>
-    </row>
-    <row r="143" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE142" s="3"/>
+    </row>
+    <row r="143" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -5405,8 +5563,9 @@
       <c r="AB143" s="3"/>
       <c r="AC143" s="3"/>
       <c r="AD143" s="3"/>
-    </row>
-    <row r="144" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE143" s="3"/>
+    </row>
+    <row r="144" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -5437,8 +5596,9 @@
       <c r="AB144" s="3"/>
       <c r="AC144" s="3"/>
       <c r="AD144" s="3"/>
-    </row>
-    <row r="145" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE144" s="3"/>
+    </row>
+    <row r="145" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -5469,8 +5629,9 @@
       <c r="AB145" s="3"/>
       <c r="AC145" s="3"/>
       <c r="AD145" s="3"/>
-    </row>
-    <row r="146" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE145" s="3"/>
+    </row>
+    <row r="146" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -5501,8 +5662,9 @@
       <c r="AB146" s="3"/>
       <c r="AC146" s="3"/>
       <c r="AD146" s="3"/>
-    </row>
-    <row r="147" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE146" s="3"/>
+    </row>
+    <row r="147" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -5533,8 +5695,9 @@
       <c r="AB147" s="3"/>
       <c r="AC147" s="3"/>
       <c r="AD147" s="3"/>
-    </row>
-    <row r="148" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE147" s="3"/>
+    </row>
+    <row r="148" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -5565,8 +5728,9 @@
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
       <c r="AD148" s="3"/>
-    </row>
-    <row r="149" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE148" s="3"/>
+    </row>
+    <row r="149" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -5597,8 +5761,9 @@
       <c r="AB149" s="3"/>
       <c r="AC149" s="3"/>
       <c r="AD149" s="3"/>
-    </row>
-    <row r="150" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE149" s="3"/>
+    </row>
+    <row r="150" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -5629,8 +5794,9 @@
       <c r="AB150" s="3"/>
       <c r="AC150" s="3"/>
       <c r="AD150" s="3"/>
-    </row>
-    <row r="151" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE150" s="3"/>
+    </row>
+    <row r="151" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -5661,8 +5827,9 @@
       <c r="AB151" s="3"/>
       <c r="AC151" s="3"/>
       <c r="AD151" s="3"/>
-    </row>
-    <row r="152" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE151" s="3"/>
+    </row>
+    <row r="152" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -5693,8 +5860,9 @@
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
       <c r="AD152" s="3"/>
-    </row>
-    <row r="153" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE152" s="3"/>
+    </row>
+    <row r="153" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -5725,8 +5893,9 @@
       <c r="AB153" s="3"/>
       <c r="AC153" s="3"/>
       <c r="AD153" s="3"/>
-    </row>
-    <row r="154" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE153" s="3"/>
+    </row>
+    <row r="154" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -5757,8 +5926,9 @@
       <c r="AB154" s="3"/>
       <c r="AC154" s="3"/>
       <c r="AD154" s="3"/>
-    </row>
-    <row r="155" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE154" s="3"/>
+    </row>
+    <row r="155" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -5789,8 +5959,9 @@
       <c r="AB155" s="3"/>
       <c r="AC155" s="3"/>
       <c r="AD155" s="3"/>
-    </row>
-    <row r="156" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE155" s="3"/>
+    </row>
+    <row r="156" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -5821,8 +5992,9 @@
       <c r="AB156" s="3"/>
       <c r="AC156" s="3"/>
       <c r="AD156" s="3"/>
-    </row>
-    <row r="157" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE156" s="3"/>
+    </row>
+    <row r="157" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -5853,8 +6025,9 @@
       <c r="AB157" s="3"/>
       <c r="AC157" s="3"/>
       <c r="AD157" s="3"/>
-    </row>
-    <row r="158" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE157" s="3"/>
+    </row>
+    <row r="158" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -5885,8 +6058,9 @@
       <c r="AB158" s="3"/>
       <c r="AC158" s="3"/>
       <c r="AD158" s="3"/>
-    </row>
-    <row r="159" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE158" s="3"/>
+    </row>
+    <row r="159" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -5917,8 +6091,9 @@
       <c r="AB159" s="3"/>
       <c r="AC159" s="3"/>
       <c r="AD159" s="3"/>
-    </row>
-    <row r="160" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE159" s="3"/>
+    </row>
+    <row r="160" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5949,8 +6124,9 @@
       <c r="AB160" s="3"/>
       <c r="AC160" s="3"/>
       <c r="AD160" s="3"/>
-    </row>
-    <row r="161" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE160" s="3"/>
+    </row>
+    <row r="161" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5981,8 +6157,9 @@
       <c r="AB161" s="3"/>
       <c r="AC161" s="3"/>
       <c r="AD161" s="3"/>
-    </row>
-    <row r="162" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE161" s="3"/>
+    </row>
+    <row r="162" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -6013,8 +6190,9 @@
       <c r="AB162" s="3"/>
       <c r="AC162" s="3"/>
       <c r="AD162" s="3"/>
-    </row>
-    <row r="163" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE162" s="3"/>
+    </row>
+    <row r="163" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -6045,8 +6223,9 @@
       <c r="AB163" s="3"/>
       <c r="AC163" s="3"/>
       <c r="AD163" s="3"/>
-    </row>
-    <row r="164" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE163" s="3"/>
+    </row>
+    <row r="164" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -6077,8 +6256,9 @@
       <c r="AB164" s="3"/>
       <c r="AC164" s="3"/>
       <c r="AD164" s="3"/>
-    </row>
-    <row r="165" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE164" s="3"/>
+    </row>
+    <row r="165" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -6109,8 +6289,9 @@
       <c r="AB165" s="3"/>
       <c r="AC165" s="3"/>
       <c r="AD165" s="3"/>
-    </row>
-    <row r="166" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE165" s="3"/>
+    </row>
+    <row r="166" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -6141,8 +6322,9 @@
       <c r="AB166" s="3"/>
       <c r="AC166" s="3"/>
       <c r="AD166" s="3"/>
-    </row>
-    <row r="167" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE166" s="3"/>
+    </row>
+    <row r="167" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -6173,8 +6355,9 @@
       <c r="AB167" s="3"/>
       <c r="AC167" s="3"/>
       <c r="AD167" s="3"/>
-    </row>
-    <row r="168" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE167" s="3"/>
+    </row>
+    <row r="168" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -6205,8 +6388,9 @@
       <c r="AB168" s="3"/>
       <c r="AC168" s="3"/>
       <c r="AD168" s="3"/>
-    </row>
-    <row r="169" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE168" s="3"/>
+    </row>
+    <row r="169" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -6237,8 +6421,9 @@
       <c r="AB169" s="3"/>
       <c r="AC169" s="3"/>
       <c r="AD169" s="3"/>
-    </row>
-    <row r="170" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE169" s="3"/>
+    </row>
+    <row r="170" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -6269,8 +6454,9 @@
       <c r="AB170" s="3"/>
       <c r="AC170" s="3"/>
       <c r="AD170" s="3"/>
-    </row>
-    <row r="171" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE170" s="3"/>
+    </row>
+    <row r="171" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -6301,8 +6487,9 @@
       <c r="AB171" s="3"/>
       <c r="AC171" s="3"/>
       <c r="AD171" s="3"/>
-    </row>
-    <row r="172" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE171" s="3"/>
+    </row>
+    <row r="172" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -6333,8 +6520,9 @@
       <c r="AB172" s="3"/>
       <c r="AC172" s="3"/>
       <c r="AD172" s="3"/>
-    </row>
-    <row r="173" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE172" s="3"/>
+    </row>
+    <row r="173" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -6365,8 +6553,9 @@
       <c r="AB173" s="3"/>
       <c r="AC173" s="3"/>
       <c r="AD173" s="3"/>
-    </row>
-    <row r="174" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE173" s="3"/>
+    </row>
+    <row r="174" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -6397,8 +6586,9 @@
       <c r="AB174" s="3"/>
       <c r="AC174" s="3"/>
       <c r="AD174" s="3"/>
-    </row>
-    <row r="175" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE174" s="3"/>
+    </row>
+    <row r="175" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -6429,8 +6619,9 @@
       <c r="AB175" s="3"/>
       <c r="AC175" s="3"/>
       <c r="AD175" s="3"/>
-    </row>
-    <row r="176" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE175" s="3"/>
+    </row>
+    <row r="176" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -6461,8 +6652,9 @@
       <c r="AB176" s="3"/>
       <c r="AC176" s="3"/>
       <c r="AD176" s="3"/>
-    </row>
-    <row r="177" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE176" s="3"/>
+    </row>
+    <row r="177" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -6493,8 +6685,9 @@
       <c r="AB177" s="3"/>
       <c r="AC177" s="3"/>
       <c r="AD177" s="3"/>
-    </row>
-    <row r="178" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE177" s="3"/>
+    </row>
+    <row r="178" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -6525,8 +6718,9 @@
       <c r="AB178" s="3"/>
       <c r="AC178" s="3"/>
       <c r="AD178" s="3"/>
-    </row>
-    <row r="179" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE178" s="3"/>
+    </row>
+    <row r="179" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -6557,8 +6751,9 @@
       <c r="AB179" s="3"/>
       <c r="AC179" s="3"/>
       <c r="AD179" s="3"/>
-    </row>
-    <row r="180" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE179" s="3"/>
+    </row>
+    <row r="180" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -6589,8 +6784,9 @@
       <c r="AB180" s="3"/>
       <c r="AC180" s="3"/>
       <c r="AD180" s="3"/>
-    </row>
-    <row r="181" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE180" s="3"/>
+    </row>
+    <row r="181" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -6621,8 +6817,9 @@
       <c r="AB181" s="3"/>
       <c r="AC181" s="3"/>
       <c r="AD181" s="3"/>
-    </row>
-    <row r="182" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE181" s="3"/>
+    </row>
+    <row r="182" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -6653,8 +6850,9 @@
       <c r="AB182" s="3"/>
       <c r="AC182" s="3"/>
       <c r="AD182" s="3"/>
-    </row>
-    <row r="183" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE182" s="3"/>
+    </row>
+    <row r="183" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -6685,8 +6883,9 @@
       <c r="AB183" s="3"/>
       <c r="AC183" s="3"/>
       <c r="AD183" s="3"/>
-    </row>
-    <row r="184" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE183" s="3"/>
+    </row>
+    <row r="184" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -6717,8 +6916,9 @@
       <c r="AB184" s="3"/>
       <c r="AC184" s="3"/>
       <c r="AD184" s="3"/>
-    </row>
-    <row r="185" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE184" s="3"/>
+    </row>
+    <row r="185" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -6749,8 +6949,9 @@
       <c r="AB185" s="3"/>
       <c r="AC185" s="3"/>
       <c r="AD185" s="3"/>
-    </row>
-    <row r="186" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE185" s="3"/>
+    </row>
+    <row r="186" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -6781,8 +6982,9 @@
       <c r="AB186" s="3"/>
       <c r="AC186" s="3"/>
       <c r="AD186" s="3"/>
-    </row>
-    <row r="187" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE186" s="3"/>
+    </row>
+    <row r="187" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -6813,8 +7015,9 @@
       <c r="AB187" s="3"/>
       <c r="AC187" s="3"/>
       <c r="AD187" s="3"/>
-    </row>
-    <row r="188" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE187" s="3"/>
+    </row>
+    <row r="188" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -6845,8 +7048,9 @@
       <c r="AB188" s="3"/>
       <c r="AC188" s="3"/>
       <c r="AD188" s="3"/>
-    </row>
-    <row r="189" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE188" s="3"/>
+    </row>
+    <row r="189" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -6877,8 +7081,9 @@
       <c r="AB189" s="3"/>
       <c r="AC189" s="3"/>
       <c r="AD189" s="3"/>
-    </row>
-    <row r="190" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE189" s="3"/>
+    </row>
+    <row r="190" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -6909,8 +7114,9 @@
       <c r="AB190" s="3"/>
       <c r="AC190" s="3"/>
       <c r="AD190" s="3"/>
-    </row>
-    <row r="191" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE190" s="3"/>
+    </row>
+    <row r="191" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -6941,8 +7147,9 @@
       <c r="AB191" s="3"/>
       <c r="AC191" s="3"/>
       <c r="AD191" s="3"/>
-    </row>
-    <row r="192" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE191" s="3"/>
+    </row>
+    <row r="192" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -6973,8 +7180,9 @@
       <c r="AB192" s="3"/>
       <c r="AC192" s="3"/>
       <c r="AD192" s="3"/>
-    </row>
-    <row r="193" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE192" s="3"/>
+    </row>
+    <row r="193" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -7005,8 +7213,9 @@
       <c r="AB193" s="3"/>
       <c r="AC193" s="3"/>
       <c r="AD193" s="3"/>
-    </row>
-    <row r="194" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE193" s="3"/>
+    </row>
+    <row r="194" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -7037,8 +7246,9 @@
       <c r="AB194" s="3"/>
       <c r="AC194" s="3"/>
       <c r="AD194" s="3"/>
-    </row>
-    <row r="195" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE194" s="3"/>
+    </row>
+    <row r="195" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -7069,8 +7279,9 @@
       <c r="AB195" s="3"/>
       <c r="AC195" s="3"/>
       <c r="AD195" s="3"/>
-    </row>
-    <row r="196" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE195" s="3"/>
+    </row>
+    <row r="196" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -7101,8 +7312,9 @@
       <c r="AB196" s="3"/>
       <c r="AC196" s="3"/>
       <c r="AD196" s="3"/>
-    </row>
-    <row r="197" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE196" s="3"/>
+    </row>
+    <row r="197" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -7133,8 +7345,9 @@
       <c r="AB197" s="3"/>
       <c r="AC197" s="3"/>
       <c r="AD197" s="3"/>
-    </row>
-    <row r="198" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE197" s="3"/>
+    </row>
+    <row r="198" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -7165,8 +7378,9 @@
       <c r="AB198" s="3"/>
       <c r="AC198" s="3"/>
       <c r="AD198" s="3"/>
-    </row>
-    <row r="199" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE198" s="3"/>
+    </row>
+    <row r="199" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -7197,8 +7411,9 @@
       <c r="AB199" s="3"/>
       <c r="AC199" s="3"/>
       <c r="AD199" s="3"/>
-    </row>
-    <row r="200" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE199" s="3"/>
+    </row>
+    <row r="200" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -7229,8 +7444,9 @@
       <c r="AB200" s="3"/>
       <c r="AC200" s="3"/>
       <c r="AD200" s="3"/>
-    </row>
-    <row r="201" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE200" s="3"/>
+    </row>
+    <row r="201" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -7261,8 +7477,9 @@
       <c r="AB201" s="3"/>
       <c r="AC201" s="3"/>
       <c r="AD201" s="3"/>
-    </row>
-    <row r="202" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE201" s="3"/>
+    </row>
+    <row r="202" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -7293,8 +7510,9 @@
       <c r="AB202" s="3"/>
       <c r="AC202" s="3"/>
       <c r="AD202" s="3"/>
-    </row>
-    <row r="203" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE202" s="3"/>
+    </row>
+    <row r="203" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -7325,8 +7543,9 @@
       <c r="AB203" s="3"/>
       <c r="AC203" s="3"/>
       <c r="AD203" s="3"/>
-    </row>
-    <row r="204" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE203" s="3"/>
+    </row>
+    <row r="204" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -7357,8 +7576,9 @@
       <c r="AB204" s="3"/>
       <c r="AC204" s="3"/>
       <c r="AD204" s="3"/>
-    </row>
-    <row r="205" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE204" s="3"/>
+    </row>
+    <row r="205" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -7389,8 +7609,9 @@
       <c r="AB205" s="3"/>
       <c r="AC205" s="3"/>
       <c r="AD205" s="3"/>
-    </row>
-    <row r="206" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE205" s="3"/>
+    </row>
+    <row r="206" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -7421,8 +7642,9 @@
       <c r="AB206" s="3"/>
       <c r="AC206" s="3"/>
       <c r="AD206" s="3"/>
-    </row>
-    <row r="207" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE206" s="3"/>
+    </row>
+    <row r="207" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -7453,8 +7675,9 @@
       <c r="AB207" s="3"/>
       <c r="AC207" s="3"/>
       <c r="AD207" s="3"/>
-    </row>
-    <row r="208" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE207" s="3"/>
+    </row>
+    <row r="208" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -7485,8 +7708,9 @@
       <c r="AB208" s="3"/>
       <c r="AC208" s="3"/>
       <c r="AD208" s="3"/>
-    </row>
-    <row r="209" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE208" s="3"/>
+    </row>
+    <row r="209" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -7517,8 +7741,9 @@
       <c r="AB209" s="3"/>
       <c r="AC209" s="3"/>
       <c r="AD209" s="3"/>
-    </row>
-    <row r="210" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE209" s="3"/>
+    </row>
+    <row r="210" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -7549,8 +7774,9 @@
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
       <c r="AD210" s="3"/>
-    </row>
-    <row r="211" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE210" s="3"/>
+    </row>
+    <row r="211" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -7581,8 +7807,9 @@
       <c r="AB211" s="3"/>
       <c r="AC211" s="3"/>
       <c r="AD211" s="3"/>
-    </row>
-    <row r="212" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE211" s="3"/>
+    </row>
+    <row r="212" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -7613,8 +7840,9 @@
       <c r="AB212" s="3"/>
       <c r="AC212" s="3"/>
       <c r="AD212" s="3"/>
-    </row>
-    <row r="213" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE212" s="3"/>
+    </row>
+    <row r="213" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -7645,8 +7873,9 @@
       <c r="AB213" s="3"/>
       <c r="AC213" s="3"/>
       <c r="AD213" s="3"/>
-    </row>
-    <row r="214" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE213" s="3"/>
+    </row>
+    <row r="214" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -7677,8 +7906,9 @@
       <c r="AB214" s="3"/>
       <c r="AC214" s="3"/>
       <c r="AD214" s="3"/>
-    </row>
-    <row r="215" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE214" s="3"/>
+    </row>
+    <row r="215" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -7709,8 +7939,9 @@
       <c r="AB215" s="3"/>
       <c r="AC215" s="3"/>
       <c r="AD215" s="3"/>
-    </row>
-    <row r="216" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE215" s="3"/>
+    </row>
+    <row r="216" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -7741,8 +7972,9 @@
       <c r="AB216" s="3"/>
       <c r="AC216" s="3"/>
       <c r="AD216" s="3"/>
-    </row>
-    <row r="217" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE216" s="3"/>
+    </row>
+    <row r="217" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -7773,8 +8005,9 @@
       <c r="AB217" s="3"/>
       <c r="AC217" s="3"/>
       <c r="AD217" s="3"/>
-    </row>
-    <row r="218" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE217" s="3"/>
+    </row>
+    <row r="218" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -7805,8 +8038,9 @@
       <c r="AB218" s="3"/>
       <c r="AC218" s="3"/>
       <c r="AD218" s="3"/>
-    </row>
-    <row r="219" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE218" s="3"/>
+    </row>
+    <row r="219" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -7837,8 +8071,9 @@
       <c r="AB219" s="3"/>
       <c r="AC219" s="3"/>
       <c r="AD219" s="3"/>
-    </row>
-    <row r="220" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE219" s="3"/>
+    </row>
+    <row r="220" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -7869,11 +8104,12 @@
       <c r="AB220" s="3"/>
       <c r="AC220" s="3"/>
       <c r="AD220" s="3"/>
-    </row>
-    <row r="221" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="AE220" s="3"/>
+    </row>
+    <row r="221" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8651,7 +8887,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B12:M12">
+  <conditionalFormatting sqref="C12:N12">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -8661,7 +8897,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O11">
+  <conditionalFormatting sqref="P2:P11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8673,7 +8909,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P11">
+  <conditionalFormatting sqref="Q2:Q11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8687,5 +8923,63 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{6064B628-3AD2-49B0-8B17-412596838563}">
+          <x14:colorSeries rgb="FF0070C0"/>
+          <x14:colorNegative rgb="FF000000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF000000"/>
+          <x14:colorFirst rgb="FF000000"/>
+          <x14:colorLast rgb="FF000000"/>
+          <x14:colorHigh rgb="FF000000"/>
+          <x14:colorLow rgb="FF000000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C2:N2</xm:f>
+              <xm:sqref>B2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C3:N3</xm:f>
+              <xm:sqref>B3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C4:N4</xm:f>
+              <xm:sqref>B4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C5:N5</xm:f>
+              <xm:sqref>B5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C6:N6</xm:f>
+              <xm:sqref>B6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C7:N7</xm:f>
+              <xm:sqref>B7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C8:N8</xm:f>
+              <xm:sqref>B8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C9:N9</xm:f>
+              <xm:sqref>B9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C10:N10</xm:f>
+              <xm:sqref>B10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C11:N11</xm:f>
+              <xm:sqref>B11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>